--- a/Scrum/Templates/2/Sprint-backlog-template (1).xlsx
+++ b/Scrum/Templates/2/Sprint-backlog-template (1).xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisma\Documents\Visual Studio 2015\Projects\WindowsFormsApplication3\Scrum\Templates\2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Backlog Item</t>
   </si>
@@ -54,27 +59,6 @@
     <t>Sprint Review</t>
   </si>
   <si>
-    <t>User Story #1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task </t>
-  </si>
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>User Story #2</t>
-  </si>
-  <si>
-    <t>User Story #4</t>
-  </si>
-  <si>
-    <t>User Story #3</t>
-  </si>
-  <si>
-    <t>User Story #5</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -82,6 +66,54 @@
   </si>
   <si>
     <t>Create a Sprint Backlog in Smartsheet</t>
+  </si>
+  <si>
+    <t>Extract MLB Stats</t>
+  </si>
+  <si>
+    <t>Extract MLB Schedule</t>
+  </si>
+  <si>
+    <t>Extract MLB Series</t>
+  </si>
+  <si>
+    <t>User Story #2 - Series report by day</t>
+  </si>
+  <si>
+    <t>User Story #1 - View a 2 line report of game</t>
+  </si>
+  <si>
+    <t>User Story #3 - Order series by sheets</t>
+  </si>
+  <si>
+    <t>User Story #4 - Have info from MLB and Covers</t>
+  </si>
+  <si>
+    <t>Align MLB Series per day</t>
+  </si>
+  <si>
+    <t>Create class / db model</t>
+  </si>
+  <si>
+    <t>Create MLB Serie Class</t>
+  </si>
+  <si>
+    <t>Extract dat from team</t>
+  </si>
+  <si>
+    <t>Create MLB Game Class</t>
+  </si>
+  <si>
+    <t>User Story #5 - Fill data continuosly</t>
+  </si>
+  <si>
+    <t>Fill data periodically</t>
+  </si>
+  <si>
+    <t>Creting of sheets depending of quantities and dates</t>
+  </si>
+  <si>
+    <t>Order schedule</t>
   </si>
 </sst>
 </file>
@@ -229,6 +261,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -239,21 +279,37 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="18"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -264,6 +320,39 @@
       </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -277,6 +366,21 @@
           <c:tx>
             <c:v>Sprint Burndown Chart</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -313,25 +417,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>78.0</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60.0</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59.0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -346,22 +450,54 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2090279592"/>
-        <c:axId val="-2090276584"/>
+        <c:axId val="-407036224"/>
+        <c:axId val="-464639248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2090279592"/>
+        <c:axId val="-407036224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2090276584"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-464639248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -369,32 +505,650 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2090276584"/>
+        <c:axId val="-464639248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2090279592"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-407036224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -475,8 +1229,8 @@
       <xdr:rowOff>49524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>396875</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
@@ -832,21 +1586,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:T40"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.83203125" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" customWidth="1"/>
+    <col min="1" max="1" width="53.5" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="4" max="4" width="18.875" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
       <c r="C1" s="5"/>
@@ -875,7 +1629,7 @@
       <c r="Z1" s="5"/>
       <c r="AA1" s="5"/>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="5"/>
@@ -904,9 +1658,9 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
     </row>
-    <row r="3" spans="1:27" ht="23">
+    <row r="3" spans="1:27" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="5"/>
@@ -935,7 +1689,7 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="5"/>
@@ -964,7 +1718,7 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="5"/>
@@ -993,7 +1747,7 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
     </row>
-    <row r="6" spans="1:27" ht="31" customHeight="1">
+    <row r="6" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1044,9 +1798,9 @@
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
     </row>
-    <row r="7" spans="1:27" ht="18">
+    <row r="7" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B7" s="8">
         <v>8</v>
@@ -1077,33 +1831,33 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
     </row>
-    <row r="8" spans="1:27">
-      <c r="A8" s="3" t="s">
-        <v>12</v>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F8" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G8" s="4">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H8" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I8" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J8" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K8" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
@@ -1122,33 +1876,33 @@
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F9" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G9" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H9" s="4">
         <v>5</v>
       </c>
       <c r="I9" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J9" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K9" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
@@ -1167,33 +1921,33 @@
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
     </row>
-    <row r="10" spans="1:27">
-      <c r="A10" s="3" t="s">
-        <v>12</v>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" s="4">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="G10" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H10" s="4">
         <v>3</v>
       </c>
       <c r="I10" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J10" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K10" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
@@ -1212,33 +1966,33 @@
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
     </row>
-    <row r="11" spans="1:27">
-      <c r="A11" s="3" t="s">
-        <v>13</v>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="4">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="F11" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H11" s="4">
         <v>3</v>
       </c>
       <c r="I11" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J11" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K11" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
@@ -1257,9 +2011,9 @@
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
     </row>
-    <row r="12" spans="1:27" ht="18">
+    <row r="12" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12" s="8">
         <v>1</v>
@@ -1290,33 +2044,33 @@
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F13" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G13" s="4">
-        <v>0.5</v>
+        <v>8</v>
       </c>
       <c r="H13" s="4">
-        <v>0.5</v>
+        <v>8</v>
       </c>
       <c r="I13" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J13" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K13" s="4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
@@ -1335,33 +2089,33 @@
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
     </row>
-    <row r="14" spans="1:27">
-      <c r="A14" s="3" t="s">
-        <v>13</v>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F14" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G14" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H14" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I14" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J14" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K14" s="4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
@@ -1380,34 +2134,18 @@
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
     </row>
-    <row r="15" spans="1:27">
-      <c r="A15" s="3" t="s">
-        <v>12</v>
-      </c>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="4">
-        <v>2</v>
-      </c>
-      <c r="F15" s="4">
-        <v>2</v>
-      </c>
-      <c r="G15" s="4">
-        <v>5</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4">
-        <v>1</v>
-      </c>
-      <c r="J15" s="4">
-        <v>0</v>
-      </c>
-      <c r="K15" s="4">
-        <v>1</v>
-      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
@@ -1425,34 +2163,18 @@
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
     </row>
-    <row r="16" spans="1:27">
-      <c r="A16" s="3" t="s">
-        <v>12</v>
-      </c>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="4">
-        <v>5</v>
-      </c>
-      <c r="F16" s="4">
-        <v>5</v>
-      </c>
-      <c r="G16" s="4">
-        <v>9</v>
-      </c>
-      <c r="H16" s="4">
-        <v>5</v>
-      </c>
-      <c r="I16" s="4">
-        <v>1</v>
-      </c>
-      <c r="J16" s="4">
-        <v>0</v>
-      </c>
-      <c r="K16" s="4">
-        <v>1</v>
-      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
@@ -1470,9 +2192,9 @@
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
     </row>
-    <row r="17" spans="1:27" ht="18">
+    <row r="17" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B17" s="8">
         <v>5</v>
@@ -1503,9 +2225,9 @@
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="3"/>
@@ -1514,22 +2236,22 @@
         <v>8</v>
       </c>
       <c r="F18" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G18" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H18" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I18" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J18" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K18" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
@@ -1548,34 +2270,18 @@
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
     </row>
-    <row r="19" spans="1:27">
-      <c r="A19" s="3" t="s">
-        <v>12</v>
-      </c>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="4">
-        <v>3</v>
-      </c>
-      <c r="F19" s="4">
-        <v>1</v>
-      </c>
-      <c r="G19" s="4">
-        <v>3</v>
-      </c>
-      <c r="H19" s="4">
-        <v>3</v>
-      </c>
-      <c r="I19" s="4">
-        <v>3</v>
-      </c>
-      <c r="J19" s="4">
-        <v>0</v>
-      </c>
-      <c r="K19" s="4">
-        <v>0</v>
-      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
@@ -1593,34 +2299,18 @@
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
     </row>
-    <row r="20" spans="1:27">
-      <c r="A20" s="3" t="s">
-        <v>12</v>
-      </c>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F20" s="4">
-        <v>1</v>
-      </c>
-      <c r="G20" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H20" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="I20" s="4">
-        <v>1</v>
-      </c>
-      <c r="J20" s="4">
-        <v>1</v>
-      </c>
-      <c r="K20" s="4">
-        <v>0</v>
-      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
@@ -1638,34 +2328,18 @@
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
     </row>
-    <row r="21" spans="1:27">
-      <c r="A21" s="3" t="s">
-        <v>13</v>
-      </c>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="4">
-        <v>2</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0</v>
-      </c>
-      <c r="H21" s="4">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
-        <v>0</v>
-      </c>
-      <c r="K21" s="4">
-        <v>3</v>
-      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
@@ -1683,9 +2357,9 @@
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
     </row>
-    <row r="22" spans="1:27" ht="18">
+    <row r="22" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B22" s="8">
         <v>8</v>
@@ -1716,30 +2390,30 @@
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F23" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G23" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H23" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" s="4">
         <v>0</v>
@@ -1761,33 +2435,33 @@
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F24" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G24" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H24" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J24" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
@@ -1806,33 +2480,33 @@
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F25" s="4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G25" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H25" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I25" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" s="4">
         <v>0</v>
       </c>
       <c r="K25" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
@@ -1851,34 +2525,18 @@
       <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
     </row>
-    <row r="26" spans="1:27">
-      <c r="A26" s="3" t="s">
-        <v>12</v>
-      </c>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
       <c r="B26" s="4"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="F26" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G26" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H26" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="I26" s="4">
-        <v>0</v>
-      </c>
-      <c r="J26" s="4">
-        <v>0</v>
-      </c>
-      <c r="K26" s="4">
-        <v>0</v>
-      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
@@ -1896,9 +2554,9 @@
       <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
     </row>
-    <row r="27" spans="1:27" ht="18">
+    <row r="27" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B27" s="8">
         <v>3</v>
@@ -1929,33 +2587,33 @@
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
     </row>
-    <row r="28" spans="1:27">
-      <c r="A28" s="3" t="s">
-        <v>12</v>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F28" s="4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G28" s="4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H28" s="4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I28" s="4">
-        <v>0.5</v>
+        <v>8</v>
       </c>
       <c r="J28" s="4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K28" s="4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
@@ -1974,34 +2632,18 @@
       <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
     </row>
-    <row r="29" spans="1:27">
-      <c r="A29" s="3" t="s">
-        <v>13</v>
-      </c>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
       <c r="B29" s="4"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="4">
-        <v>6</v>
-      </c>
-      <c r="F29" s="4">
-        <v>6</v>
-      </c>
-      <c r="G29" s="4">
-        <v>6</v>
-      </c>
-      <c r="H29" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="I29" s="4">
-        <v>3</v>
-      </c>
-      <c r="J29" s="4">
-        <v>9</v>
-      </c>
-      <c r="K29" s="4">
-        <v>0</v>
-      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
@@ -2019,34 +2661,18 @@
       <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
     </row>
-    <row r="30" spans="1:27">
-      <c r="A30" s="3" t="s">
-        <v>13</v>
-      </c>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
       <c r="B30" s="4"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="4">
-        <v>9</v>
-      </c>
-      <c r="F30" s="4">
-        <v>9</v>
-      </c>
-      <c r="G30" s="4">
-        <v>9</v>
-      </c>
-      <c r="H30" s="4">
-        <v>4</v>
-      </c>
-      <c r="I30" s="4">
-        <v>3</v>
-      </c>
-      <c r="J30" s="4">
-        <v>3</v>
-      </c>
-      <c r="K30" s="4">
-        <v>3</v>
-      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
@@ -2064,34 +2690,18 @@
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
     </row>
-    <row r="31" spans="1:27">
-      <c r="A31" s="3" t="s">
-        <v>13</v>
-      </c>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
       <c r="B31" s="4"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="F31" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G31" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H31" s="4">
-        <v>1</v>
-      </c>
-      <c r="I31" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="J31" s="4">
-        <v>0</v>
-      </c>
-      <c r="K31" s="4">
-        <v>1</v>
-      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
@@ -2109,40 +2719,40 @@
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
     </row>
-    <row r="32" spans="1:27" ht="29" customHeight="1">
+    <row r="32" spans="1:27" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
         <f>SUM(E7:E31)</f>
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F32" s="11">
         <f>SUM(F8:F31)</f>
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="G32" s="11">
         <f>SUM(G7:G31)</f>
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H32" s="11">
         <f>SUM(H7:H31)</f>
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I32" s="11">
         <f>SUM(I7:I31)</f>
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="J32" s="11">
         <f>SUM(J7:J31)</f>
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="K32" s="11">
         <f>SUM(K7:K31)</f>
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
@@ -2161,7 +2771,7 @@
       <c r="Z32" s="5"/>
       <c r="AA32" s="5"/>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="6"/>
       <c r="C33" s="5"/>
@@ -2190,7 +2800,7 @@
       <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="6"/>
       <c r="C34" s="5"/>
@@ -2219,9 +2829,9 @@
       <c r="Z34" s="5"/>
       <c r="AA34" s="5"/>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -2250,7 +2860,7 @@
       <c r="Z35" s="5"/>
       <c r="AA35" s="5"/>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -2279,7 +2889,7 @@
       <c r="Z36" s="5"/>
       <c r="AA36" s="5"/>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -2308,7 +2918,7 @@
       <c r="Z37" s="5"/>
       <c r="AA37" s="5"/>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
@@ -2337,7 +2947,7 @@
       <c r="Z38" s="5"/>
       <c r="AA38" s="5"/>
     </row>
-    <row r="39" spans="1:27">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
@@ -2366,7 +2976,7 @@
       <c r="Z39" s="5"/>
       <c r="AA39" s="5"/>
     </row>
-    <row r="40" spans="1:27">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -2395,7 +3005,7 @@
       <c r="Z40" s="5"/>
       <c r="AA40" s="5"/>
     </row>
-    <row r="41" spans="1:27">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
       <c r="C41" s="5"/>
@@ -2424,7 +3034,7 @@
       <c r="Z41" s="5"/>
       <c r="AA41" s="5"/>
     </row>
-    <row r="42" spans="1:27">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="6"/>
       <c r="C42" s="5"/>
@@ -2453,7 +3063,7 @@
       <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
     </row>
-    <row r="43" spans="1:27">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="5"/>
@@ -2482,7 +3092,7 @@
       <c r="Z43" s="5"/>
       <c r="AA43" s="5"/>
     </row>
-    <row r="44" spans="1:27">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="6"/>
       <c r="C44" s="5"/>
@@ -2511,7 +3121,7 @@
       <c r="Z44" s="5"/>
       <c r="AA44" s="5"/>
     </row>
-    <row r="45" spans="1:27">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="6"/>
       <c r="C45" s="5"/>
@@ -2540,7 +3150,7 @@
       <c r="Z45" s="5"/>
       <c r="AA45" s="5"/>
     </row>
-    <row r="46" spans="1:27">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="6"/>
       <c r="C46" s="5"/>
@@ -2569,7 +3179,7 @@
       <c r="Z46" s="5"/>
       <c r="AA46" s="5"/>
     </row>
-    <row r="47" spans="1:27">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="6"/>
       <c r="C47" s="5"/>
@@ -2598,7 +3208,7 @@
       <c r="Z47" s="5"/>
       <c r="AA47" s="5"/>
     </row>
-    <row r="48" spans="1:27">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="6"/>
       <c r="C48" s="5"/>
@@ -2627,7 +3237,7 @@
       <c r="Z48" s="5"/>
       <c r="AA48" s="5"/>
     </row>
-    <row r="49" spans="1:27">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="6"/>
       <c r="C49" s="5"/>
@@ -2656,7 +3266,7 @@
       <c r="Z49" s="5"/>
       <c r="AA49" s="5"/>
     </row>
-    <row r="50" spans="1:27">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="6"/>
       <c r="C50" s="5"/>
@@ -2685,7 +3295,7 @@
       <c r="Z50" s="5"/>
       <c r="AA50" s="5"/>
     </row>
-    <row r="51" spans="1:27">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="6"/>
       <c r="C51" s="5"/>
@@ -2714,7 +3324,7 @@
       <c r="Z51" s="5"/>
       <c r="AA51" s="5"/>
     </row>
-    <row r="52" spans="1:27">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" s="6"/>
       <c r="C52" s="5"/>
@@ -2743,7 +3353,7 @@
       <c r="Z52" s="5"/>
       <c r="AA52" s="5"/>
     </row>
-    <row r="53" spans="1:27">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="6"/>
       <c r="C53" s="5"/>
@@ -2772,7 +3382,7 @@
       <c r="Z53" s="5"/>
       <c r="AA53" s="5"/>
     </row>
-    <row r="54" spans="1:27">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="6"/>
       <c r="C54" s="5"/>
@@ -2801,7 +3411,7 @@
       <c r="Z54" s="5"/>
       <c r="AA54" s="5"/>
     </row>
-    <row r="55" spans="1:27">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="6"/>
       <c r="C55" s="5"/>
@@ -2830,7 +3440,7 @@
       <c r="Z55" s="5"/>
       <c r="AA55" s="5"/>
     </row>
-    <row r="56" spans="1:27">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
       <c r="B56" s="6"/>
       <c r="C56" s="5"/>
@@ -2859,7 +3469,7 @@
       <c r="Z56" s="5"/>
       <c r="AA56" s="5"/>
     </row>
-    <row r="57" spans="1:27">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="6"/>
       <c r="C57" s="5"/>
@@ -2888,7 +3498,7 @@
       <c r="Z57" s="5"/>
       <c r="AA57" s="5"/>
     </row>
-    <row r="58" spans="1:27">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="6"/>
       <c r="C58" s="5"/>
@@ -2917,7 +3527,7 @@
       <c r="Z58" s="5"/>
       <c r="AA58" s="5"/>
     </row>
-    <row r="59" spans="1:27">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="6"/>
       <c r="C59" s="5"/>
@@ -2946,7 +3556,7 @@
       <c r="Z59" s="5"/>
       <c r="AA59" s="5"/>
     </row>
-    <row r="60" spans="1:27">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="6"/>
       <c r="C60" s="5"/>
@@ -2975,7 +3585,7 @@
       <c r="Z60" s="5"/>
       <c r="AA60" s="5"/>
     </row>
-    <row r="61" spans="1:27">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
       <c r="B61" s="6"/>
       <c r="C61" s="5"/>
@@ -3004,7 +3614,7 @@
       <c r="Z61" s="5"/>
       <c r="AA61" s="5"/>
     </row>
-    <row r="62" spans="1:27">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
       <c r="B62" s="6"/>
       <c r="C62" s="5"/>
@@ -3033,7 +3643,7 @@
       <c r="Z62" s="5"/>
       <c r="AA62" s="5"/>
     </row>
-    <row r="63" spans="1:27">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
       <c r="B63" s="6"/>
       <c r="C63" s="5"/>
@@ -3062,7 +3672,7 @@
       <c r="Z63" s="5"/>
       <c r="AA63" s="5"/>
     </row>
-    <row r="64" spans="1:27">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="B64" s="6"/>
       <c r="C64" s="5"/>
@@ -3091,7 +3701,7 @@
       <c r="Z64" s="5"/>
       <c r="AA64" s="5"/>
     </row>
-    <row r="65" spans="1:27">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
       <c r="B65" s="6"/>
       <c r="C65" s="5"/>
@@ -3120,7 +3730,7 @@
       <c r="Z65" s="5"/>
       <c r="AA65" s="5"/>
     </row>
-    <row r="66" spans="1:27">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="B66" s="6"/>
       <c r="C66" s="5"/>
@@ -3149,7 +3759,7 @@
       <c r="Z66" s="5"/>
       <c r="AA66" s="5"/>
     </row>
-    <row r="67" spans="1:27">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="B67" s="6"/>
       <c r="C67" s="5"/>
@@ -3178,7 +3788,7 @@
       <c r="Z67" s="5"/>
       <c r="AA67" s="5"/>
     </row>
-    <row r="68" spans="1:27">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
       <c r="B68" s="6"/>
       <c r="C68" s="5"/>
@@ -3207,7 +3817,7 @@
       <c r="Z68" s="5"/>
       <c r="AA68" s="5"/>
     </row>
-    <row r="69" spans="1:27">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69" s="6"/>
       <c r="C69" s="5"/>
@@ -3236,7 +3846,7 @@
       <c r="Z69" s="5"/>
       <c r="AA69" s="5"/>
     </row>
-    <row r="70" spans="1:27">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="B70" s="6"/>
       <c r="C70" s="5"/>
@@ -3265,7 +3875,7 @@
       <c r="Z70" s="5"/>
       <c r="AA70" s="5"/>
     </row>
-    <row r="71" spans="1:27">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="B71" s="6"/>
       <c r="C71" s="5"/>
@@ -3294,7 +3904,7 @@
       <c r="Z71" s="5"/>
       <c r="AA71" s="5"/>
     </row>
-    <row r="72" spans="1:27">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="B72" s="6"/>
       <c r="C72" s="5"/>
@@ -3323,7 +3933,7 @@
       <c r="Z72" s="5"/>
       <c r="AA72" s="5"/>
     </row>
-    <row r="73" spans="1:27">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="B73" s="6"/>
       <c r="C73" s="5"/>
@@ -3352,7 +3962,7 @@
       <c r="Z73" s="5"/>
       <c r="AA73" s="5"/>
     </row>
-    <row r="74" spans="1:27">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
       <c r="B74" s="6"/>
       <c r="C74" s="5"/>
@@ -3381,7 +3991,7 @@
       <c r="Z74" s="5"/>
       <c r="AA74" s="5"/>
     </row>
-    <row r="75" spans="1:27">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
       <c r="B75" s="6"/>
       <c r="C75" s="5"/>
@@ -3410,7 +4020,7 @@
       <c r="Z75" s="5"/>
       <c r="AA75" s="5"/>
     </row>
-    <row r="76" spans="1:27">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
       <c r="B76" s="6"/>
       <c r="C76" s="5"/>
@@ -3439,7 +4049,7 @@
       <c r="Z76" s="5"/>
       <c r="AA76" s="5"/>
     </row>
-    <row r="77" spans="1:27">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="B77" s="6"/>
       <c r="C77" s="5"/>
@@ -3468,7 +4078,7 @@
       <c r="Z77" s="5"/>
       <c r="AA77" s="5"/>
     </row>
-    <row r="78" spans="1:27">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
       <c r="B78" s="6"/>
       <c r="C78" s="5"/>
@@ -3497,7 +4107,7 @@
       <c r="Z78" s="5"/>
       <c r="AA78" s="5"/>
     </row>
-    <row r="79" spans="1:27">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
       <c r="B79" s="6"/>
       <c r="C79" s="5"/>
@@ -3526,7 +4136,7 @@
       <c r="Z79" s="5"/>
       <c r="AA79" s="5"/>
     </row>
-    <row r="80" spans="1:27">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
       <c r="B80" s="6"/>
       <c r="C80" s="5"/>
@@ -3555,7 +4165,7 @@
       <c r="Z80" s="5"/>
       <c r="AA80" s="5"/>
     </row>
-    <row r="81" spans="1:27">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
       <c r="B81" s="6"/>
       <c r="C81" s="5"/>
@@ -3584,7 +4194,7 @@
       <c r="Z81" s="5"/>
       <c r="AA81" s="5"/>
     </row>
-    <row r="82" spans="1:27">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
       <c r="B82" s="6"/>
       <c r="C82" s="5"/>
@@ -3613,7 +4223,7 @@
       <c r="Z82" s="5"/>
       <c r="AA82" s="5"/>
     </row>
-    <row r="83" spans="1:27">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="B83" s="6"/>
       <c r="C83" s="5"/>
@@ -3642,7 +4252,7 @@
       <c r="Z83" s="5"/>
       <c r="AA83" s="5"/>
     </row>
-    <row r="84" spans="1:27">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
       <c r="B84" s="6"/>
       <c r="C84" s="5"/>
@@ -3671,7 +4281,7 @@
       <c r="Z84" s="5"/>
       <c r="AA84" s="5"/>
     </row>
-    <row r="85" spans="1:27">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
       <c r="B85" s="6"/>
       <c r="C85" s="5"/>
@@ -3700,7 +4310,7 @@
       <c r="Z85" s="5"/>
       <c r="AA85" s="5"/>
     </row>
-    <row r="86" spans="1:27">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
       <c r="B86" s="6"/>
       <c r="C86" s="5"/>
@@ -3729,7 +4339,7 @@
       <c r="Z86" s="5"/>
       <c r="AA86" s="5"/>
     </row>
-    <row r="87" spans="1:27">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
       <c r="B87" s="6"/>
       <c r="C87" s="5"/>
@@ -3758,7 +4368,7 @@
       <c r="Z87" s="5"/>
       <c r="AA87" s="5"/>
     </row>
-    <row r="88" spans="1:27">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
       <c r="B88" s="6"/>
       <c r="C88" s="5"/>
@@ -3787,7 +4397,7 @@
       <c r="Z88" s="5"/>
       <c r="AA88" s="5"/>
     </row>
-    <row r="89" spans="1:27">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
       <c r="B89" s="6"/>
       <c r="C89" s="5"/>
@@ -3816,7 +4426,7 @@
       <c r="Z89" s="5"/>
       <c r="AA89" s="5"/>
     </row>
-    <row r="90" spans="1:27">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
       <c r="B90" s="6"/>
       <c r="C90" s="5"/>
@@ -3845,7 +4455,7 @@
       <c r="Z90" s="5"/>
       <c r="AA90" s="5"/>
     </row>
-    <row r="91" spans="1:27">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
       <c r="B91" s="6"/>
       <c r="C91" s="5"/>
@@ -3874,7 +4484,7 @@
       <c r="Z91" s="5"/>
       <c r="AA91" s="5"/>
     </row>
-    <row r="92" spans="1:27">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
       <c r="B92" s="6"/>
       <c r="C92" s="5"/>
@@ -3903,7 +4513,7 @@
       <c r="Z92" s="5"/>
       <c r="AA92" s="5"/>
     </row>
-    <row r="93" spans="1:27">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
       <c r="B93" s="6"/>
       <c r="C93" s="5"/>
@@ -3932,7 +4542,7 @@
       <c r="Z93" s="5"/>
       <c r="AA93" s="5"/>
     </row>
-    <row r="94" spans="1:27">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
       <c r="B94" s="6"/>
       <c r="C94" s="5"/>
@@ -3961,7 +4571,7 @@
       <c r="Z94" s="5"/>
       <c r="AA94" s="5"/>
     </row>
-    <row r="95" spans="1:27">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
       <c r="B95" s="6"/>
       <c r="C95" s="5"/>
@@ -3990,7 +4600,7 @@
       <c r="Z95" s="5"/>
       <c r="AA95" s="5"/>
     </row>
-    <row r="96" spans="1:27">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
       <c r="B96" s="6"/>
       <c r="C96" s="5"/>
@@ -4019,7 +4629,7 @@
       <c r="Z96" s="5"/>
       <c r="AA96" s="5"/>
     </row>
-    <row r="97" spans="1:27">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A97" s="5"/>
       <c r="B97" s="6"/>
       <c r="C97" s="5"/>
@@ -4048,7 +4658,7 @@
       <c r="Z97" s="5"/>
       <c r="AA97" s="5"/>
     </row>
-    <row r="98" spans="1:27">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
       <c r="B98" s="6"/>
       <c r="C98" s="5"/>
@@ -4077,7 +4687,7 @@
       <c r="Z98" s="5"/>
       <c r="AA98" s="5"/>
     </row>
-    <row r="99" spans="1:27">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A99" s="5"/>
       <c r="B99" s="6"/>
       <c r="C99" s="5"/>
@@ -4106,7 +4716,7 @@
       <c r="Z99" s="5"/>
       <c r="AA99" s="5"/>
     </row>
-    <row r="100" spans="1:27">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A100" s="5"/>
       <c r="B100" s="6"/>
       <c r="C100" s="5"/>
@@ -4135,7 +4745,7 @@
       <c r="Z100" s="5"/>
       <c r="AA100" s="5"/>
     </row>
-    <row r="101" spans="1:27">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A101" s="5"/>
       <c r="B101" s="6"/>
       <c r="C101" s="5"/>
@@ -4164,7 +4774,7 @@
       <c r="Z101" s="5"/>
       <c r="AA101" s="5"/>
     </row>
-    <row r="102" spans="1:27">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A102" s="5"/>
       <c r="B102" s="6"/>
       <c r="C102" s="5"/>
@@ -4193,7 +4803,7 @@
       <c r="Z102" s="5"/>
       <c r="AA102" s="5"/>
     </row>
-    <row r="103" spans="1:27">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
       <c r="B103" s="6"/>
       <c r="C103" s="5"/>
@@ -4222,7 +4832,7 @@
       <c r="Z103" s="5"/>
       <c r="AA103" s="5"/>
     </row>
-    <row r="104" spans="1:27">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A104" s="5"/>
       <c r="B104" s="6"/>
       <c r="C104" s="5"/>
@@ -4251,7 +4861,7 @@
       <c r="Z104" s="5"/>
       <c r="AA104" s="5"/>
     </row>
-    <row r="105" spans="1:27">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A105" s="5"/>
       <c r="B105" s="6"/>
       <c r="C105" s="5"/>
@@ -4280,7 +4890,7 @@
       <c r="Z105" s="5"/>
       <c r="AA105" s="5"/>
     </row>
-    <row r="106" spans="1:27">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A106" s="5"/>
       <c r="B106" s="6"/>
       <c r="C106" s="5"/>
@@ -4309,7 +4919,7 @@
       <c r="Z106" s="5"/>
       <c r="AA106" s="5"/>
     </row>
-    <row r="107" spans="1:27">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A107" s="5"/>
       <c r="B107" s="6"/>
       <c r="C107" s="5"/>
@@ -4338,7 +4948,7 @@
       <c r="Z107" s="5"/>
       <c r="AA107" s="5"/>
     </row>
-    <row r="108" spans="1:27">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
       <c r="B108" s="6"/>
       <c r="C108" s="5"/>
@@ -4367,7 +4977,7 @@
       <c r="Z108" s="5"/>
       <c r="AA108" s="5"/>
     </row>
-    <row r="109" spans="1:27">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A109" s="5"/>
       <c r="B109" s="6"/>
       <c r="C109" s="5"/>
@@ -4396,7 +5006,7 @@
       <c r="Z109" s="5"/>
       <c r="AA109" s="5"/>
     </row>
-    <row r="110" spans="1:27">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A110" s="5"/>
       <c r="B110" s="6"/>
       <c r="C110" s="5"/>
@@ -4425,7 +5035,7 @@
       <c r="Z110" s="5"/>
       <c r="AA110" s="5"/>
     </row>
-    <row r="111" spans="1:27">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A111" s="5"/>
       <c r="B111" s="6"/>
       <c r="C111" s="5"/>
@@ -4454,7 +5064,7 @@
       <c r="Z111" s="5"/>
       <c r="AA111" s="5"/>
     </row>
-    <row r="112" spans="1:27">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A112" s="5"/>
       <c r="B112" s="6"/>
       <c r="C112" s="5"/>
@@ -4483,7 +5093,7 @@
       <c r="Z112" s="5"/>
       <c r="AA112" s="5"/>
     </row>
-    <row r="113" spans="1:27">
+    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A113" s="5"/>
       <c r="B113" s="6"/>
       <c r="C113" s="5"/>
@@ -4512,7 +5122,7 @@
       <c r="Z113" s="5"/>
       <c r="AA113" s="5"/>
     </row>
-    <row r="114" spans="1:27">
+    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A114" s="5"/>
       <c r="B114" s="6"/>
       <c r="C114" s="5"/>
@@ -4541,7 +5151,7 @@
       <c r="Z114" s="5"/>
       <c r="AA114" s="5"/>
     </row>
-    <row r="115" spans="1:27">
+    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A115" s="5"/>
       <c r="B115" s="6"/>
       <c r="C115" s="5"/>
@@ -4570,7 +5180,7 @@
       <c r="Z115" s="5"/>
       <c r="AA115" s="5"/>
     </row>
-    <row r="116" spans="1:27">
+    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A116" s="5"/>
       <c r="B116" s="6"/>
       <c r="C116" s="5"/>
@@ -4599,7 +5209,7 @@
       <c r="Z116" s="5"/>
       <c r="AA116" s="5"/>
     </row>
-    <row r="117" spans="1:27">
+    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A117" s="5"/>
       <c r="B117" s="6"/>
       <c r="C117" s="5"/>
@@ -4628,7 +5238,7 @@
       <c r="Z117" s="5"/>
       <c r="AA117" s="5"/>
     </row>
-    <row r="118" spans="1:27">
+    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A118" s="5"/>
       <c r="B118" s="6"/>
       <c r="C118" s="5"/>
@@ -4657,7 +5267,7 @@
       <c r="Z118" s="5"/>
       <c r="AA118" s="5"/>
     </row>
-    <row r="119" spans="1:27">
+    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A119" s="5"/>
       <c r="B119" s="6"/>
       <c r="C119" s="5"/>
@@ -4686,7 +5296,7 @@
       <c r="Z119" s="5"/>
       <c r="AA119" s="5"/>
     </row>
-    <row r="120" spans="1:27">
+    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A120" s="5"/>
       <c r="B120" s="6"/>
       <c r="C120" s="5"/>
@@ -4715,7 +5325,7 @@
       <c r="Z120" s="5"/>
       <c r="AA120" s="5"/>
     </row>
-    <row r="121" spans="1:27">
+    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A121" s="5"/>
       <c r="B121" s="6"/>
       <c r="C121" s="5"/>
@@ -4744,7 +5354,7 @@
       <c r="Z121" s="5"/>
       <c r="AA121" s="5"/>
     </row>
-    <row r="122" spans="1:27">
+    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
       <c r="B122" s="6"/>
       <c r="C122" s="5"/>
@@ -4773,7 +5383,7 @@
       <c r="Z122" s="5"/>
       <c r="AA122" s="5"/>
     </row>
-    <row r="123" spans="1:27">
+    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A123" s="5"/>
       <c r="B123" s="6"/>
       <c r="C123" s="5"/>
@@ -4802,7 +5412,7 @@
       <c r="Z123" s="5"/>
       <c r="AA123" s="5"/>
     </row>
-    <row r="124" spans="1:27">
+    <row r="124" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A124" s="5"/>
       <c r="B124" s="6"/>
       <c r="C124" s="5"/>
@@ -4831,7 +5441,7 @@
       <c r="Z124" s="5"/>
       <c r="AA124" s="5"/>
     </row>
-    <row r="125" spans="1:27">
+    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A125" s="5"/>
       <c r="B125" s="6"/>
       <c r="C125" s="5"/>
@@ -4860,7 +5470,7 @@
       <c r="Z125" s="5"/>
       <c r="AA125" s="5"/>
     </row>
-    <row r="126" spans="1:27">
+    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A126" s="5"/>
       <c r="B126" s="6"/>
       <c r="C126" s="5"/>
@@ -4889,7 +5499,7 @@
       <c r="Z126" s="5"/>
       <c r="AA126" s="5"/>
     </row>
-    <row r="127" spans="1:27">
+    <row r="127" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A127" s="5"/>
       <c r="B127" s="6"/>
       <c r="C127" s="5"/>
@@ -4918,7 +5528,7 @@
       <c r="Z127" s="5"/>
       <c r="AA127" s="5"/>
     </row>
-    <row r="128" spans="1:27">
+    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A128" s="5"/>
       <c r="B128" s="6"/>
       <c r="C128" s="5"/>
@@ -4947,7 +5557,7 @@
       <c r="Z128" s="5"/>
       <c r="AA128" s="5"/>
     </row>
-    <row r="129" spans="1:27">
+    <row r="129" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A129" s="5"/>
       <c r="B129" s="6"/>
       <c r="C129" s="5"/>
@@ -4976,7 +5586,7 @@
       <c r="Z129" s="5"/>
       <c r="AA129" s="5"/>
     </row>
-    <row r="130" spans="1:27">
+    <row r="130" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A130" s="5"/>
       <c r="B130" s="6"/>
       <c r="C130" s="5"/>
@@ -5005,7 +5615,7 @@
       <c r="Z130" s="5"/>
       <c r="AA130" s="5"/>
     </row>
-    <row r="131" spans="1:27">
+    <row r="131" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A131" s="5"/>
       <c r="B131" s="6"/>
       <c r="C131" s="5"/>
@@ -5034,7 +5644,7 @@
       <c r="Z131" s="5"/>
       <c r="AA131" s="5"/>
     </row>
-    <row r="132" spans="1:27">
+    <row r="132" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A132" s="5"/>
       <c r="B132" s="6"/>
       <c r="C132" s="5"/>
@@ -5063,7 +5673,7 @@
       <c r="Z132" s="5"/>
       <c r="AA132" s="5"/>
     </row>
-    <row r="133" spans="1:27">
+    <row r="133" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A133" s="5"/>
       <c r="B133" s="6"/>
       <c r="C133" s="5"/>
@@ -5092,7 +5702,7 @@
       <c r="Z133" s="5"/>
       <c r="AA133" s="5"/>
     </row>
-    <row r="134" spans="1:27">
+    <row r="134" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A134" s="5"/>
       <c r="B134" s="6"/>
       <c r="C134" s="5"/>
@@ -5121,7 +5731,7 @@
       <c r="Z134" s="5"/>
       <c r="AA134" s="5"/>
     </row>
-    <row r="135" spans="1:27">
+    <row r="135" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A135" s="5"/>
       <c r="B135" s="6"/>
       <c r="C135" s="5"/>
@@ -5150,7 +5760,7 @@
       <c r="Z135" s="5"/>
       <c r="AA135" s="5"/>
     </row>
-    <row r="136" spans="1:27">
+    <row r="136" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A136" s="5"/>
       <c r="B136" s="6"/>
       <c r="C136" s="5"/>

--- a/Scrum/Templates/2/Sprint-backlog-template (1).xlsx
+++ b/Scrum/Templates/2/Sprint-backlog-template (1).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Backlog Item</t>
   </si>
@@ -115,12 +115,15 @@
   <si>
     <t>Order schedule</t>
   </si>
+  <si>
+    <t>http://www.covers.com/pageLoader/pageLoader.aspx?page=/data/mlb/matchups/g4_summary_12.html</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -156,8 +159,15 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,6 +204,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -219,11 +234,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -254,8 +270,10 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -451,11 +469,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-407036224"/>
-        <c:axId val="-464639248"/>
+        <c:axId val="-715732000"/>
+        <c:axId val="-715730912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-407036224"/>
+        <c:axId val="-715732000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -497,7 +515,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-464639248"/>
+        <c:crossAx val="-715730912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -505,7 +523,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-464639248"/>
+        <c:axId val="-715730912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -555,7 +573,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-407036224"/>
+        <c:crossAx val="-715732000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1587,7 +1605,7 @@
   <dimension ref="A1:AA136"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2391,7 +2409,7 @@
       <c r="AA22" s="5"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B23" s="4"/>
@@ -2436,7 +2454,7 @@
       <c r="AA23" s="5"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B24" s="4"/>
@@ -2481,7 +2499,7 @@
       <c r="AA24" s="5"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B25" s="4"/>
@@ -2526,7 +2544,9 @@
       <c r="AA25" s="5"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
+      <c r="A26" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="B26" s="4"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
